--- a/data/participantes.xlsx
+++ b/data/participantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Falo Proyect\VB\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0EE049-4A65-4AB2-9BB9-11290FFB380D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BAF77C-E341-4735-9E17-629E0DA6379F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>COD</t>
   </si>
@@ -73,6 +73,24 @@
   </si>
   <si>
     <t>30/12/202011:13:27 a. m.</t>
+  </si>
+  <si>
+    <t>4OF16</t>
+  </si>
+  <si>
+    <t>Oscar Castro</t>
+  </si>
+  <si>
+    <t>30/12/2020 - 11:50:39 a. m.</t>
+  </si>
+  <si>
+    <t>5pF-2424</t>
+  </si>
+  <si>
+    <t>prueba veintemil</t>
+  </si>
+  <si>
+    <t>30/12/2020 - 11:57:26 a. m.</t>
   </si>
 </sst>
 </file>
@@ -415,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,6 +522,46 @@
         <v>234234234</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>43254563546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>-2424</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>80902736</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/participantes.xlsx
+++ b/data/participantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Falo Proyect\VB\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0EE049-4A65-4AB2-9BB9-11290FFB380D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B325E534-EA3E-4371-840A-486BC179B1B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>COD</t>
   </si>
@@ -45,34 +45,16 @@
     <t>CEDULA</t>
   </si>
   <si>
-    <t>1OF</t>
-  </si>
-  <si>
-    <t>Oscar Vicente Castro Mendivelso</t>
-  </si>
-  <si>
-    <t>Femenino</t>
-  </si>
-  <si>
-    <t>29/12/202011:15:49 p. m.</t>
-  </si>
-  <si>
-    <t>2oF</t>
-  </si>
-  <si>
-    <t>otro usuario</t>
-  </si>
-  <si>
-    <t>30/12/202011:06:39 a. m.</t>
-  </si>
-  <si>
-    <t>3PF</t>
-  </si>
-  <si>
-    <t>Participanta</t>
-  </si>
-  <si>
-    <t>30/12/202011:13:27 a. m.</t>
+    <t>1MM43</t>
+  </si>
+  <si>
+    <t>Michael Jackson</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>30/12/2020 - 4:13:30 p. m.</t>
   </si>
 </sst>
 </file>
@@ -415,9 +397,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="A2:F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -452,7 +436,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -461,47 +445,7 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>809499494</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>241</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>12435666</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>82</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>234234234</v>
+        <v>5558545</v>
       </c>
     </row>
   </sheetData>

--- a/data/participantes.xlsx
+++ b/data/participantes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Falo Proyect\VB\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B325E534-EA3E-4371-840A-486BC179B1B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D79FCE-B564-4765-B47E-1C52AFC6FC8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8688" yWindow="2328" windowWidth="13824" windowHeight="7224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>COD</t>
   </si>
@@ -55,6 +55,30 @@
   </si>
   <si>
     <t>30/12/2020 - 4:13:30 p. m.</t>
+  </si>
+  <si>
+    <t>2aF-3534</t>
+  </si>
+  <si>
+    <t>asdfasdf</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>13/01/2021 - 5:36:10 p. m.</t>
+  </si>
+  <si>
+    <t>3aF34</t>
+  </si>
+  <si>
+    <t>asdfqwerwerty</t>
+  </si>
+  <si>
+    <t>13/01/2021 - 5:44:32 p. m.</t>
+  </si>
+  <si>
+    <t>sdfgwq3456</t>
   </si>
 </sst>
 </file>
@@ -397,18 +421,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="A2:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="16.88671875" customWidth="1"/>
+    <col min="1" max="6" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -446,6 +470,46 @@
       </c>
       <c r="F2">
         <v>5558545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>-3534</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/participantes.xlsx
+++ b/data/participantes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Falo Proyect\VB\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\carolina\Desktop\Psicology_experimet-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D79FCE-B564-4765-B47E-1C52AFC6FC8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEE8917-8252-42EE-915E-1A1E0D292EEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8688" yWindow="2328" windowWidth="13824" windowHeight="7224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>COD</t>
   </si>
@@ -43,42 +43,6 @@
   </si>
   <si>
     <t>CEDULA</t>
-  </si>
-  <si>
-    <t>1MM43</t>
-  </si>
-  <si>
-    <t>Michael Jackson</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>30/12/2020 - 4:13:30 p. m.</t>
-  </si>
-  <si>
-    <t>2aF-3534</t>
-  </si>
-  <si>
-    <t>asdfasdf</t>
-  </si>
-  <si>
-    <t>Femenino</t>
-  </si>
-  <si>
-    <t>13/01/2021 - 5:36:10 p. m.</t>
-  </si>
-  <si>
-    <t>3aF34</t>
-  </si>
-  <si>
-    <t>asdfqwerwerty</t>
-  </si>
-  <si>
-    <t>13/01/2021 - 5:44:32 p. m.</t>
-  </si>
-  <si>
-    <t>sdfgwq3456</t>
   </si>
 </sst>
 </file>
@@ -421,11 +385,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="A2:F10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -452,66 +414,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>5558545</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>-3534</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/participantes.xlsx
+++ b/data/participantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\carolina\Desktop\Psicology_experimet-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEE8917-8252-42EE-915E-1A1E0D292EEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185BCCD1-FE3E-47A9-832C-2120FD577102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
   <si>
     <t>COD</t>
   </si>
@@ -43,6 +43,213 @@
   </si>
   <si>
     <t>CEDULA</t>
+  </si>
+  <si>
+    <t>1cF0</t>
+  </si>
+  <si>
+    <t>cni8h</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>29/1/2021 - 09:01:20 a. m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kbut </t>
+  </si>
+  <si>
+    <t>2iF0</t>
+  </si>
+  <si>
+    <t>inwxkuecfnh</t>
+  </si>
+  <si>
+    <t>29/1/2021 - 09:17:05 a. m.</t>
+  </si>
+  <si>
+    <t>ibtn</t>
+  </si>
+  <si>
+    <t>3wF0</t>
+  </si>
+  <si>
+    <t>wo4cny</t>
+  </si>
+  <si>
+    <t>29/1/2021 - 09:50:01 a. m.</t>
+  </si>
+  <si>
+    <t>b7yf</t>
+  </si>
+  <si>
+    <t>4jF0</t>
+  </si>
+  <si>
+    <t>j98wcyuh</t>
+  </si>
+  <si>
+    <t>29/1/2021 - 09:51:41 a. m.</t>
+  </si>
+  <si>
+    <t>onugm</t>
+  </si>
+  <si>
+    <t>5lF0</t>
+  </si>
+  <si>
+    <t>lcnfh</t>
+  </si>
+  <si>
+    <t>29/1/2021 - 09:56:16 a. m.</t>
+  </si>
+  <si>
+    <t>nkuh</t>
+  </si>
+  <si>
+    <t>6lF0</t>
+  </si>
+  <si>
+    <t>lncru</t>
+  </si>
+  <si>
+    <t>29/1/2021 - 10:01:20 a. m.</t>
+  </si>
+  <si>
+    <t>oub</t>
+  </si>
+  <si>
+    <t>7wF0</t>
+  </si>
+  <si>
+    <t>wjf</t>
+  </si>
+  <si>
+    <t>29/1/2021 - 10:18:31 a. m.</t>
+  </si>
+  <si>
+    <t>uyg</t>
+  </si>
+  <si>
+    <t>8eF0</t>
+  </si>
+  <si>
+    <t>enuh</t>
+  </si>
+  <si>
+    <t>29/1/2021 - 10:21:10 a. m.</t>
+  </si>
+  <si>
+    <t>nuhg</t>
+  </si>
+  <si>
+    <t>9wF0</t>
+  </si>
+  <si>
+    <t>w7hy</t>
+  </si>
+  <si>
+    <t>29/1/2021 - 10:27:50 a. m.</t>
+  </si>
+  <si>
+    <t>vyr</t>
+  </si>
+  <si>
+    <t>10PM4</t>
+  </si>
+  <si>
+    <t>Pobre Pablo</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>29/1/2021 - 10:49:31 a. m.</t>
+  </si>
+  <si>
+    <t>11rF0</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>29/1/2021 - 11:09:23 a. m.</t>
+  </si>
+  <si>
+    <t>67e</t>
+  </si>
+  <si>
+    <t>12mF0</t>
+  </si>
+  <si>
+    <t>m8tuººº</t>
+  </si>
+  <si>
+    <t>29/1/2021 - 11:19:20 a. m.</t>
+  </si>
+  <si>
+    <t>bygn</t>
+  </si>
+  <si>
+    <t>13EF0</t>
+  </si>
+  <si>
+    <t>ECY</t>
+  </si>
+  <si>
+    <t>29/1/2021 - 11:30:03 a. m.</t>
+  </si>
+  <si>
+    <t>YV</t>
+  </si>
+  <si>
+    <t>14cF0</t>
+  </si>
+  <si>
+    <t>cwm48ru</t>
+  </si>
+  <si>
+    <t>29/1/2021 - 11:53:43 a. m.</t>
+  </si>
+  <si>
+    <t>byg</t>
+  </si>
+  <si>
+    <t>15rF0</t>
+  </si>
+  <si>
+    <t>rvlgn</t>
+  </si>
+  <si>
+    <t>29/1/2021 - 11:54:54 a. m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mkj</t>
+  </si>
+  <si>
+    <t>16kF0</t>
+  </si>
+  <si>
+    <t>kmsjchf</t>
+  </si>
+  <si>
+    <t>29/1/2021 - 12:01:45 p. m.</t>
+  </si>
+  <si>
+    <t>ybgnh</t>
+  </si>
+  <si>
+    <t>17oF0</t>
+  </si>
+  <si>
+    <t>oinc</t>
+  </si>
+  <si>
+    <t>29/1/2021 - 12:07:49 p. m.</t>
+  </si>
+  <si>
+    <t>oihyg</t>
   </si>
 </sst>
 </file>
@@ -385,9 +592,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -414,6 +623,346 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11">
+        <v>55555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/participantes.xlsx
+++ b/data/participantes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\carolina\Desktop\Psicology_experimet-main\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\carolina\Desktop\PABLO\Experiment 2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185BCCD1-FE3E-47A9-832C-2120FD577102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BB20A4-0B82-4EB1-AA4D-0A88B3ED4589}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>COD</t>
   </si>
@@ -45,211 +45,79 @@
     <t>CEDULA</t>
   </si>
   <si>
-    <t>1cF0</t>
-  </si>
-  <si>
-    <t>cni8h</t>
+    <t>1sF0</t>
+  </si>
+  <si>
+    <t>smdifj</t>
   </si>
   <si>
     <t>Femenino</t>
   </si>
   <si>
-    <t>29/1/2021 - 09:01:20 a. m.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kbut </t>
-  </si>
-  <si>
-    <t>2iF0</t>
-  </si>
-  <si>
-    <t>inwxkuecfnh</t>
-  </si>
-  <si>
-    <t>29/1/2021 - 09:17:05 a. m.</t>
-  </si>
-  <si>
-    <t>ibtn</t>
-  </si>
-  <si>
-    <t>3wF0</t>
-  </si>
-  <si>
-    <t>wo4cny</t>
-  </si>
-  <si>
-    <t>29/1/2021 - 09:50:01 a. m.</t>
-  </si>
-  <si>
-    <t>b7yf</t>
-  </si>
-  <si>
-    <t>4jF0</t>
-  </si>
-  <si>
-    <t>j98wcyuh</t>
-  </si>
-  <si>
-    <t>29/1/2021 - 09:51:41 a. m.</t>
-  </si>
-  <si>
-    <t>onugm</t>
-  </si>
-  <si>
-    <t>5lF0</t>
-  </si>
-  <si>
-    <t>lcnfh</t>
-  </si>
-  <si>
-    <t>29/1/2021 - 09:56:16 a. m.</t>
-  </si>
-  <si>
-    <t>nkuh</t>
-  </si>
-  <si>
-    <t>6lF0</t>
-  </si>
-  <si>
-    <t>lncru</t>
-  </si>
-  <si>
-    <t>29/1/2021 - 10:01:20 a. m.</t>
-  </si>
-  <si>
-    <t>oub</t>
-  </si>
-  <si>
-    <t>7wF0</t>
-  </si>
-  <si>
-    <t>wjf</t>
-  </si>
-  <si>
-    <t>29/1/2021 - 10:18:31 a. m.</t>
-  </si>
-  <si>
-    <t>uyg</t>
-  </si>
-  <si>
-    <t>8eF0</t>
-  </si>
-  <si>
-    <t>enuh</t>
-  </si>
-  <si>
-    <t>29/1/2021 - 10:21:10 a. m.</t>
-  </si>
-  <si>
-    <t>nuhg</t>
-  </si>
-  <si>
-    <t>9wF0</t>
-  </si>
-  <si>
-    <t>w7hy</t>
-  </si>
-  <si>
-    <t>29/1/2021 - 10:27:50 a. m.</t>
-  </si>
-  <si>
-    <t>vyr</t>
-  </si>
-  <si>
-    <t>10PM4</t>
-  </si>
-  <si>
-    <t>Pobre Pablo</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>29/1/2021 - 10:49:31 a. m.</t>
-  </si>
-  <si>
-    <t>11rF0</t>
-  </si>
-  <si>
-    <t>ru</t>
-  </si>
-  <si>
-    <t>29/1/2021 - 11:09:23 a. m.</t>
-  </si>
-  <si>
-    <t>67e</t>
-  </si>
-  <si>
-    <t>12mF0</t>
-  </si>
-  <si>
-    <t>m8tuººº</t>
-  </si>
-  <si>
-    <t>29/1/2021 - 11:19:20 a. m.</t>
-  </si>
-  <si>
-    <t>bygn</t>
-  </si>
-  <si>
-    <t>13EF0</t>
-  </si>
-  <si>
-    <t>ECY</t>
-  </si>
-  <si>
-    <t>29/1/2021 - 11:30:03 a. m.</t>
-  </si>
-  <si>
-    <t>YV</t>
-  </si>
-  <si>
-    <t>14cF0</t>
-  </si>
-  <si>
-    <t>cwm48ru</t>
-  </si>
-  <si>
-    <t>29/1/2021 - 11:53:43 a. m.</t>
-  </si>
-  <si>
-    <t>byg</t>
-  </si>
-  <si>
-    <t>15rF0</t>
-  </si>
-  <si>
-    <t>rvlgn</t>
-  </si>
-  <si>
-    <t>29/1/2021 - 11:54:54 a. m.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  mkj</t>
-  </si>
-  <si>
-    <t>16kF0</t>
-  </si>
-  <si>
-    <t>kmsjchf</t>
-  </si>
-  <si>
-    <t>29/1/2021 - 12:01:45 p. m.</t>
-  </si>
-  <si>
-    <t>ybgnh</t>
-  </si>
-  <si>
-    <t>17oF0</t>
-  </si>
-  <si>
-    <t>oinc</t>
-  </si>
-  <si>
-    <t>29/1/2021 - 12:07:49 p. m.</t>
-  </si>
-  <si>
-    <t>oihyg</t>
+    <t>13/2/2021 - 07:05:13 p. m.</t>
+  </si>
+  <si>
+    <t>inhkj</t>
+  </si>
+  <si>
+    <t>2sF0</t>
+  </si>
+  <si>
+    <t>sodmfj</t>
+  </si>
+  <si>
+    <t>13/2/2021 - 07:06:23 p. m.</t>
+  </si>
+  <si>
+    <t>omjhn</t>
+  </si>
+  <si>
+    <t>3mF0</t>
+  </si>
+  <si>
+    <t>mhkj</t>
+  </si>
+  <si>
+    <t>13/2/2021 - 07:07:29 p. m.</t>
+  </si>
+  <si>
+    <t>j b</t>
+  </si>
+  <si>
+    <t>4iF0</t>
+  </si>
+  <si>
+    <t>imfo</t>
+  </si>
+  <si>
+    <t>13/2/2021 - 09:15:50 p. m.</t>
+  </si>
+  <si>
+    <t>kjk</t>
+  </si>
+  <si>
+    <t>5cF0</t>
+  </si>
+  <si>
+    <t>cmifgj</t>
+  </si>
+  <si>
+    <t>13/2/2021 - 09:32:28 p. m.</t>
+  </si>
+  <si>
+    <t>ubyg</t>
+  </si>
+  <si>
+    <t>6sF0</t>
+  </si>
+  <si>
+    <t>scidfm</t>
+  </si>
+  <si>
+    <t>13/2/2021 - 09:50:47 p. m.</t>
+  </si>
+  <si>
+    <t>mj</t>
   </si>
 </sst>
 </file>
@@ -592,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD26"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,226 +611,6 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11">
-        <v>55555</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" t="s">
-        <v>74</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/participantes.xlsx
+++ b/data/participantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\carolina\Desktop\PABLO\Experiment 1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2E7370-013A-44A3-9AD5-FB946EAF3A5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826FCCE4-1F8D-42FD-A783-EF0B34C9F37F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -388,7 +388,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F3"/>
+      <selection activeCell="A2" sqref="A2:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/participantes.xlsx
+++ b/data/participantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\carolina\Desktop\PABLO\Experiment 1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826FCCE4-1F8D-42FD-A783-EF0B34C9F37F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DA5535-E793-4D3C-8D6B-E5C34E23A008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>COD</t>
   </si>
@@ -43,6 +43,21 @@
   </si>
   <si>
     <t>CEDULA</t>
+  </si>
+  <si>
+    <t>1SF0</t>
+  </si>
+  <si>
+    <t>SDMHF</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>18/2/2021 - 07:42:06 p. m.</t>
+  </si>
+  <si>
+    <t>KN</t>
   </si>
 </sst>
 </file>
@@ -385,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F22"/>
@@ -416,6 +431,26 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
